--- a/config/excelFile/定时.xlsx
+++ b/config/excelFile/定时.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>星期几</t>
   </si>
@@ -106,6 +106,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>9:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>15:30:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -114,70 +126,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>9:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>11:30:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>13:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>11:30:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>9:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>13:30:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>15:30:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:00</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:30:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:30:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:00:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +554,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -595,16 +592,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
@@ -618,22 +615,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -641,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>21</v>
@@ -664,16 +661,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>4</v>
@@ -686,17 +683,17 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>5</v>
@@ -709,16 +706,16 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
